--- a/CalMultiRDMA/search-2.xlsx
+++ b/CalMultiRDMA/search-2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/minxinhao/c++/CalPlot/CalMultiRDMA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C18F2D57-081E-3F40-B7DB-2F72D0A91D53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{738C06B8-D19E-CE49-A3C3-BBD1E7B87268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7760" yWindow="23420" windowWidth="26640" windowHeight="15440" xr2:uid="{7D45D860-CA60-0046-BB86-9D997A011640}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>RACE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,10 +46,6 @@
   </si>
   <si>
     <t>Plush</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Array-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -429,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5A2328D-6AB0-D64D-8C8A-A6F4BFCD9185}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14:E17"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -456,293 +452,234 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>90230.19</v>
+        <v>14974.28</v>
       </c>
       <c r="C2">
-        <v>112982.519999999</v>
+        <v>9422.6</v>
       </c>
       <c r="D2" s="1">
-        <v>200528.27</v>
+        <v>15163.9</v>
       </c>
       <c r="E2">
-        <v>78299.73</v>
+        <v>10706.57</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="B3">
-        <v>94545.599999999904</v>
+        <v>13348.76</v>
       </c>
       <c r="C3">
-        <v>88750.33</v>
+        <v>21966.21</v>
       </c>
       <c r="D3" s="1">
-        <v>98103.6</v>
+        <v>26562.14</v>
       </c>
       <c r="E3">
-        <v>65206.559999999998</v>
+        <v>29912.03</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="B4">
-        <v>139136.60999999999</v>
+        <v>25843.439999999999</v>
       </c>
       <c r="C4">
-        <v>101222.39999999999</v>
+        <v>34387.339999999997</v>
       </c>
       <c r="D4" s="1">
-        <v>96266.97</v>
+        <v>31459.58</v>
       </c>
       <c r="E4">
-        <v>69417.56</v>
+        <v>31535.79</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="B5">
-        <v>140624.75</v>
+        <v>21215.129999999899</v>
       </c>
       <c r="C5">
-        <v>136017.93</v>
+        <v>24788.28</v>
       </c>
       <c r="D5" s="1">
-        <v>121466.26</v>
+        <v>25839.1</v>
       </c>
       <c r="E5">
-        <v>74044.289999999994</v>
+        <v>26016.99</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B6">
-        <v>14974.28</v>
-      </c>
-      <c r="C6">
-        <v>9422.6</v>
-      </c>
-      <c r="D6" s="1">
-        <v>15163.9</v>
+        <v>91203.06</v>
+      </c>
+      <c r="C6" s="1">
+        <v>88619.29</v>
+      </c>
+      <c r="D6">
+        <v>90125.9</v>
       </c>
       <c r="E6">
-        <v>10706.57</v>
+        <v>79543.67</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="B7">
-        <v>13348.76</v>
-      </c>
-      <c r="C7">
-        <v>21966.21</v>
-      </c>
-      <c r="D7" s="1">
-        <v>26562.14</v>
+        <v>140136.87</v>
+      </c>
+      <c r="C7" s="1">
+        <v>140713.06</v>
+      </c>
+      <c r="D7">
+        <v>114237.239999999</v>
       </c>
       <c r="E7">
-        <v>29912.03</v>
+        <v>45760.2</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="B8">
-        <v>25843.439999999999</v>
-      </c>
-      <c r="C8">
-        <v>34387.339999999997</v>
-      </c>
-      <c r="D8" s="1">
-        <v>31459.58</v>
+        <v>150231.22</v>
+      </c>
+      <c r="C8" s="1">
+        <v>146195.70000000001</v>
+      </c>
+      <c r="D8">
+        <v>106985.29</v>
       </c>
       <c r="E8">
-        <v>31535.79</v>
+        <v>79412.319999999905</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="B9">
-        <v>21215.129999999899</v>
-      </c>
-      <c r="C9">
-        <v>24788.28</v>
-      </c>
-      <c r="D9" s="1">
-        <v>25839.1</v>
+        <v>139833.41999999899</v>
+      </c>
+      <c r="C9" s="1">
+        <v>161394.10999999999</v>
+      </c>
+      <c r="D9">
+        <v>109988.299999999</v>
       </c>
       <c r="E9">
-        <v>26016.99</v>
+        <v>84674.72</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>91203.06</v>
-      </c>
-      <c r="C10" s="1">
-        <v>88619.29</v>
+        <v>47829.119999999901</v>
+      </c>
+      <c r="C10">
+        <v>66997.929999999993</v>
       </c>
       <c r="D10">
-        <v>90125.9</v>
+        <v>60291.25</v>
       </c>
       <c r="E10">
-        <v>79543.67</v>
+        <v>81463.539999999994</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="B11">
-        <v>140136.87</v>
-      </c>
-      <c r="C11" s="1">
-        <v>140713.06</v>
+        <v>73330.22</v>
+      </c>
+      <c r="C11">
+        <v>117591.4</v>
       </c>
       <c r="D11">
-        <v>114237.239999999</v>
+        <v>114589.89</v>
       </c>
       <c r="E11">
-        <v>45760.2</v>
+        <v>62690.32</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="B12">
-        <v>150231.22</v>
-      </c>
-      <c r="C12" s="1">
-        <v>146195.70000000001</v>
+        <v>63798.549999999901</v>
+      </c>
+      <c r="C12">
+        <v>51364.13</v>
       </c>
       <c r="D12">
-        <v>106985.29</v>
+        <v>120659.26</v>
       </c>
       <c r="E12">
-        <v>79412.319999999905</v>
+        <v>52861.47</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="B13">
-        <v>139833.41999999899</v>
-      </c>
-      <c r="C13" s="1">
-        <v>161394.10999999999</v>
+        <v>104170.81</v>
+      </c>
+      <c r="C13">
+        <v>82416.05</v>
       </c>
       <c r="D13">
-        <v>109988.299999999</v>
+        <v>71416.800000000003</v>
       </c>
       <c r="E13">
-        <v>84674.72</v>
+        <v>64138.57</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14">
-        <v>47829.119999999901</v>
+        <v>5505.83</v>
       </c>
       <c r="C14">
-        <v>66997.929999999993</v>
+        <v>5338.4499999999898</v>
       </c>
       <c r="D14">
-        <v>60291.25</v>
+        <v>5600.73</v>
       </c>
       <c r="E14">
-        <v>81463.539999999994</v>
+        <v>4902.3099999999904</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="B15">
-        <v>73330.22</v>
+        <v>7572.79</v>
       </c>
       <c r="C15">
-        <v>117591.4</v>
+        <v>7467.14</v>
       </c>
       <c r="D15">
-        <v>114589.89</v>
+        <v>6849.07</v>
       </c>
       <c r="E15">
-        <v>62690.32</v>
+        <v>3454.7</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="B16">
-        <v>63798.549999999901</v>
+        <v>7644.38</v>
       </c>
       <c r="C16">
-        <v>51364.13</v>
+        <v>6619.82</v>
       </c>
       <c r="D16">
-        <v>120659.26</v>
+        <v>6201.95</v>
       </c>
       <c r="E16">
-        <v>52861.47</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>3317.7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
       <c r="B17">
-        <v>104170.81</v>
+        <v>7674.94</v>
       </c>
       <c r="C17">
-        <v>82416.05</v>
+        <v>5412.06</v>
       </c>
       <c r="D17">
-        <v>71416.800000000003</v>
+        <v>4697.66</v>
       </c>
       <c r="E17">
-        <v>64138.57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <v>5505.83</v>
-      </c>
-      <c r="C18">
-        <v>5338.4499999999898</v>
-      </c>
-      <c r="D18">
-        <v>5600.73</v>
-      </c>
-      <c r="E18">
-        <v>4902.3099999999904</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="B19">
-        <v>7572.79</v>
-      </c>
-      <c r="C19">
-        <v>7467.14</v>
-      </c>
-      <c r="D19">
-        <v>6849.07</v>
-      </c>
-      <c r="E19">
-        <v>3454.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="B20">
-        <v>7644.38</v>
-      </c>
-      <c r="C20">
-        <v>6619.82</v>
-      </c>
-      <c r="D20">
-        <v>6201.95</v>
-      </c>
-      <c r="E20">
-        <v>3317.7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="B21">
-        <v>7674.94</v>
-      </c>
-      <c r="C21">
-        <v>5412.06</v>
-      </c>
-      <c r="D21">
-        <v>4697.66</v>
-      </c>
-      <c r="E21">
         <v>3771.43</v>
       </c>
     </row>
